--- a/supplementary_tables/Table_S7.xlsx
+++ b/supplementary_tables/Table_S7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emosca/Google Drive/FROM_HOME/interactomes/writing/revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emosca/Google Drive/FROM_HOME/interactomes/writing/revision2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C655B2B3-3AFA-2744-8DEB-1D11AA855D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8495441-26E8-854B-83BD-ABB19844FBA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{49C01CDD-B5C6-214D-B000-ED07D88D88E8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1245F809-91EF-2940-AE73-E997B1F6AA82}" name="CCF_kegg_stats" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/emosca/Google Drive/FROM_HOME/interactomes/writing/revision/rstudio-export/CCF_kegg_stats.txt">
+    <textPr sourceFile="/Users/emosca/Google Drive/FROM_HOME/interactomes/writing/revision/rstudio-export/CCF_kegg_stats.txt">
       <textFields count="36">
         <textField/>
         <textField/>
@@ -161,12 +161,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>V0</t>
-  </si>
-  <si>
     <t>KEGG</t>
   </si>
   <si>
@@ -2388,6 +2382,12 @@
   </si>
   <si>
     <t>Ferroptosis</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>pathway size (number of genes)</t>
   </si>
 </sst>
 </file>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B824FA-A892-A848-84F0-DB8152C02E9D}">
   <dimension ref="A1:AD332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2768,8 +2768,9 @@
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2858,10 +2859,10 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>769</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2869,22 +2870,22 @@
         <v>82926</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>82926</v>
@@ -2961,22 +2962,22 @@
         <v>82927</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>82927</v>
@@ -3053,22 +3054,22 @@
         <v>82928</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>82928</v>
@@ -3145,22 +3146,22 @@
         <v>82929</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>82929</v>
@@ -3237,22 +3238,22 @@
         <v>82930</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>82930</v>
@@ -3329,22 +3330,22 @@
         <v>82931</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>82931</v>
@@ -3421,22 +3422,22 @@
         <v>82932</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>82932</v>
@@ -3513,22 +3514,22 @@
         <v>82933</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>82933</v>
@@ -3605,22 +3606,22 @@
         <v>82934</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>82934</v>
@@ -3697,22 +3698,22 @@
         <v>82935</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>82935</v>
@@ -3789,22 +3790,22 @@
         <v>82936</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>82936</v>
@@ -3881,22 +3882,22 @@
         <v>82937</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>82937</v>
@@ -3973,22 +3974,22 @@
         <v>82938</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>82938</v>
@@ -4065,22 +4066,22 @@
         <v>82939</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>82939</v>
@@ -4157,22 +4158,22 @@
         <v>82940</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16">
         <v>82940</v>
@@ -4249,22 +4250,22 @@
         <v>82942</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>82942</v>
@@ -4341,22 +4342,22 @@
         <v>82943</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>82943</v>
@@ -4433,22 +4434,22 @@
         <v>82944</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>82944</v>
@@ -4525,22 +4526,22 @@
         <v>82946</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>240</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <v>82946</v>
@@ -4617,22 +4618,22 @@
         <v>82949</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>260</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>82949</v>
@@ -4709,22 +4710,22 @@
         <v>82952</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H22">
         <v>82952</v>
@@ -4801,22 +4802,22 @@
         <v>82956</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23">
         <v>82956</v>
@@ -4893,22 +4894,22 @@
         <v>82957</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>330</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24">
         <v>82957</v>
@@ -4985,22 +4986,22 @@
         <v>82958</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <v>340</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>82958</v>
@@ -5077,22 +5078,22 @@
         <v>82959</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26">
         <v>350</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26">
         <v>82959</v>
@@ -5169,22 +5170,22 @@
         <v>82960</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>360</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H27">
         <v>82960</v>
@@ -5261,22 +5262,22 @@
         <v>82964</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E28">
         <v>380</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H28">
         <v>82964</v>
@@ -5353,22 +5354,22 @@
         <v>82966</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29">
         <v>410</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H29">
         <v>82966</v>
@@ -5445,22 +5446,22 @@
         <v>82967</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <v>430</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H30">
         <v>82967</v>
@@ -5537,22 +5538,22 @@
         <v>82969</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31">
         <v>450</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31">
         <v>82969</v>
@@ -5629,22 +5630,22 @@
         <v>82973</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>480</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H32">
         <v>82973</v>
@@ -5721,22 +5722,22 @@
         <v>82974</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>500</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>82974</v>
@@ -5813,22 +5814,22 @@
         <v>82975</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34">
         <v>510</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34">
         <v>82975</v>
@@ -5905,22 +5906,22 @@
         <v>82976</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E35">
         <v>511</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H35">
         <v>82976</v>
@@ -5997,22 +5998,22 @@
         <v>82977</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36">
         <v>512</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36">
         <v>82977</v>
@@ -6089,22 +6090,22 @@
         <v>82978</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>514</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H37">
         <v>82978</v>
@@ -6181,22 +6182,22 @@
         <v>82979</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38">
         <v>520</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>82979</v>
@@ -6273,22 +6274,22 @@
         <v>82981</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>531</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H39">
         <v>82981</v>
@@ -6365,22 +6366,22 @@
         <v>82982</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40">
         <v>532</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H40">
         <v>82982</v>
@@ -6457,22 +6458,22 @@
         <v>82983</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41">
         <v>533</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H41">
         <v>82983</v>
@@ -6549,22 +6550,22 @@
         <v>82984</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42">
         <v>534</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H42">
         <v>82984</v>
@@ -6641,22 +6642,22 @@
         <v>82986</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E43">
         <v>561</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H43">
         <v>82986</v>
@@ -6733,22 +6734,22 @@
         <v>82987</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>562</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>82987</v>
@@ -6825,22 +6826,22 @@
         <v>82988</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>563</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H45">
         <v>82988</v>
@@ -6917,22 +6918,22 @@
         <v>82989</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E46">
         <v>564</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H46">
         <v>82989</v>
@@ -7009,22 +7010,22 @@
         <v>82990</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E47">
         <v>565</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H47">
         <v>82990</v>
@@ -7101,22 +7102,22 @@
         <v>82991</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E48">
         <v>590</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <v>82991</v>
@@ -7193,22 +7194,22 @@
         <v>82992</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E49">
         <v>591</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H49">
         <v>82992</v>
@@ -7285,22 +7286,22 @@
         <v>82993</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50">
         <v>592</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H50">
         <v>82993</v>
@@ -7377,22 +7378,22 @@
         <v>82994</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H51">
         <v>82994</v>
@@ -7469,22 +7470,22 @@
         <v>82995</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E52">
         <v>601</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H52">
         <v>82995</v>
@@ -7561,22 +7562,22 @@
         <v>82996</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E53">
         <v>603</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H53">
         <v>82996</v>
@@ -7653,22 +7654,22 @@
         <v>82997</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>604</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H54">
         <v>82997</v>
@@ -7745,22 +7746,22 @@
         <v>82998</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55">
         <v>620</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>82998</v>
@@ -7837,22 +7838,22 @@
         <v>83002</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E56">
         <v>630</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>83002</v>
@@ -7929,22 +7930,22 @@
         <v>83004</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E57">
         <v>640</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>83004</v>
@@ -8021,22 +8022,22 @@
         <v>83007</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E58">
         <v>650</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>83007</v>
@@ -8113,22 +8114,22 @@
         <v>83008</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E59">
         <v>670</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H59">
         <v>83008</v>
@@ -8205,22 +8206,22 @@
         <v>83011</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E60">
         <v>730</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H60">
         <v>83011</v>
@@ -8297,22 +8298,22 @@
         <v>83014</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E61">
         <v>760</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H61">
         <v>83014</v>
@@ -8389,22 +8390,22 @@
         <v>83015</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62">
         <v>770</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H62">
         <v>83015</v>
@@ -8481,22 +8482,22 @@
         <v>83018</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E63">
         <v>790</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H63">
         <v>83018</v>
@@ -8573,22 +8574,22 @@
         <v>83020</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E64">
         <v>830</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H64">
         <v>83020</v>
@@ -8665,22 +8666,22 @@
         <v>83021</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E65">
         <v>860</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H65">
         <v>83021</v>
@@ -8757,22 +8758,22 @@
         <v>83022</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E66">
         <v>900</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H66">
         <v>83022</v>
@@ -8849,22 +8850,22 @@
         <v>83025</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E67">
         <v>910</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H67">
         <v>83025</v>
@@ -8941,22 +8942,22 @@
         <v>83026</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E68">
         <v>920</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H68">
         <v>83026</v>
@@ -9033,22 +9034,22 @@
         <v>83030</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E69">
         <v>970</v>
       </c>
       <c r="F69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H69">
         <v>83030</v>
@@ -9125,22 +9126,22 @@
         <v>83031</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70">
         <v>980</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H70">
         <v>83031</v>
@@ -9217,22 +9218,22 @@
         <v>83032</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E71">
         <v>982</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H71">
         <v>83032</v>
@@ -9309,22 +9310,22 @@
         <v>83033</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>983</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H72">
         <v>83033</v>
@@ -9401,22 +9402,22 @@
         <v>83034</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E73">
         <v>1040</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <v>83034</v>
@@ -9493,22 +9494,22 @@
         <v>83035</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E74">
         <v>2010</v>
       </c>
       <c r="F74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H74">
         <v>83035</v>
@@ -9585,22 +9586,22 @@
         <v>83036</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E75">
         <v>3010</v>
       </c>
       <c r="F75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H75">
         <v>83036</v>
@@ -9677,22 +9678,22 @@
         <v>83037</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E76">
         <v>3020</v>
       </c>
       <c r="F76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H76">
         <v>83037</v>
@@ -9769,22 +9770,22 @@
         <v>83038</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E77">
         <v>3022</v>
       </c>
       <c r="F77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H77">
         <v>83038</v>
@@ -9861,22 +9862,22 @@
         <v>83039</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E78">
         <v>3030</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H78">
         <v>83039</v>
@@ -9953,22 +9954,22 @@
         <v>83040</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79">
         <v>3050</v>
       </c>
       <c r="F79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H79">
         <v>83040</v>
@@ -10045,22 +10046,22 @@
         <v>83041</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E80">
         <v>3060</v>
       </c>
       <c r="F80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H80">
         <v>83041</v>
@@ -10137,22 +10138,22 @@
         <v>83042</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E81">
         <v>3320</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H81">
         <v>83042</v>
@@ -10229,22 +10230,22 @@
         <v>83043</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E82">
         <v>3410</v>
       </c>
       <c r="F82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H82">
         <v>83043</v>
@@ -10321,22 +10322,22 @@
         <v>83044</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E83">
         <v>3420</v>
       </c>
       <c r="F83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H83">
         <v>83044</v>
@@ -10413,22 +10414,22 @@
         <v>83045</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E84">
         <v>3430</v>
       </c>
       <c r="F84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H84">
         <v>83045</v>
@@ -10505,22 +10506,22 @@
         <v>83046</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E85">
         <v>3440</v>
       </c>
       <c r="F85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H85">
         <v>83046</v>
@@ -10597,22 +10598,22 @@
         <v>83047</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E86">
         <v>3450</v>
       </c>
       <c r="F86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G86" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H86">
         <v>83047</v>
@@ -10689,22 +10690,22 @@
         <v>83048</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E87">
         <v>4010</v>
       </c>
       <c r="F87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H87">
         <v>83048</v>
@@ -10781,22 +10782,22 @@
         <v>83049</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E88">
         <v>4012</v>
       </c>
       <c r="F88" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H88">
         <v>83049</v>
@@ -10873,22 +10874,22 @@
         <v>83050</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E89">
         <v>4020</v>
       </c>
       <c r="F89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H89">
         <v>83050</v>
@@ -10965,22 +10966,22 @@
         <v>83051</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E90">
         <v>4060</v>
       </c>
       <c r="F90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H90">
         <v>83051</v>
@@ -11057,22 +11058,22 @@
         <v>83052</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E91">
         <v>4070</v>
       </c>
       <c r="F91" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H91">
         <v>83052</v>
@@ -11149,22 +11150,22 @@
         <v>83053</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E92">
         <v>4080</v>
       </c>
       <c r="F92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H92">
         <v>83053</v>
@@ -11241,22 +11242,22 @@
         <v>83054</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E93">
         <v>4110</v>
       </c>
       <c r="F93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H93">
         <v>83054</v>
@@ -11333,22 +11334,22 @@
         <v>83055</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E94">
         <v>4115</v>
       </c>
       <c r="F94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H94">
         <v>83055</v>
@@ -11425,22 +11426,22 @@
         <v>83056</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E95">
         <v>4120</v>
       </c>
       <c r="F95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G95" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H95">
         <v>83056</v>
@@ -11517,22 +11518,22 @@
         <v>83057</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E96">
         <v>4130</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H96">
         <v>83057</v>
@@ -11609,22 +11610,22 @@
         <v>83058</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E97">
         <v>4140</v>
       </c>
       <c r="F97" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H97">
         <v>83058</v>
@@ -11701,22 +11702,22 @@
         <v>83059</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E98">
         <v>4150</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H98">
         <v>83059</v>
@@ -11793,22 +11794,22 @@
         <v>83060</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E99">
         <v>4210</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H99">
         <v>83060</v>
@@ -11885,22 +11886,22 @@
         <v>83061</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E100">
         <v>4310</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H100">
         <v>83061</v>
@@ -11977,22 +11978,22 @@
         <v>83062</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E101">
         <v>4330</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H101">
         <v>83062</v>
@@ -12069,22 +12070,22 @@
         <v>83063</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D102" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E102">
         <v>4340</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H102">
         <v>83063</v>
@@ -12161,22 +12162,22 @@
         <v>83064</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103">
         <v>4350</v>
       </c>
       <c r="F103" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G103" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H103">
         <v>83064</v>
@@ -12253,22 +12254,22 @@
         <v>83065</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E104">
         <v>4360</v>
       </c>
       <c r="F104" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H104">
         <v>83065</v>
@@ -12345,22 +12346,22 @@
         <v>83066</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D105" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E105">
         <v>4370</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H105">
         <v>83066</v>
@@ -12437,22 +12438,22 @@
         <v>83067</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E106">
         <v>4510</v>
       </c>
       <c r="F106" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G106" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H106">
         <v>83067</v>
@@ -12529,22 +12530,22 @@
         <v>83068</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E107">
         <v>4512</v>
       </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H107">
         <v>83068</v>
@@ -12621,22 +12622,22 @@
         <v>83069</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E108">
         <v>4514</v>
       </c>
       <c r="F108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H108">
         <v>83069</v>
@@ -12713,22 +12714,22 @@
         <v>83070</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E109">
         <v>4520</v>
       </c>
       <c r="F109" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H109">
         <v>83070</v>
@@ -12805,22 +12806,22 @@
         <v>83071</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E110">
         <v>4530</v>
       </c>
       <c r="F110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H110">
         <v>83071</v>
@@ -12897,22 +12898,22 @@
         <v>83072</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E111">
         <v>4540</v>
       </c>
       <c r="F111" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G111" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H111">
         <v>83072</v>
@@ -12989,22 +12990,22 @@
         <v>83073</v>
       </c>
       <c r="B112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D112" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E112">
         <v>4610</v>
       </c>
       <c r="F112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G112" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H112">
         <v>83073</v>
@@ -13081,22 +13082,22 @@
         <v>83074</v>
       </c>
       <c r="B113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E113">
         <v>4612</v>
       </c>
       <c r="F113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G113" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H113">
         <v>83074</v>
@@ -13173,22 +13174,22 @@
         <v>83075</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D114" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E114">
         <v>4614</v>
       </c>
       <c r="F114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H114">
         <v>83075</v>
@@ -13265,22 +13266,22 @@
         <v>83076</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E115">
         <v>4620</v>
       </c>
       <c r="F115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G115" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H115">
         <v>83076</v>
@@ -13357,22 +13358,22 @@
         <v>83077</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D116" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E116">
         <v>4630</v>
       </c>
       <c r="F116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H116">
         <v>83077</v>
@@ -13449,22 +13450,22 @@
         <v>83078</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D117" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E117">
         <v>4640</v>
       </c>
       <c r="F117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G117" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H117">
         <v>83078</v>
@@ -13541,22 +13542,22 @@
         <v>83079</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D118" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E118">
         <v>4650</v>
       </c>
       <c r="F118" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G118" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H118">
         <v>83079</v>
@@ -13633,22 +13634,22 @@
         <v>83080</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D119" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E119">
         <v>4660</v>
       </c>
       <c r="F119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H119">
         <v>83080</v>
@@ -13725,22 +13726,22 @@
         <v>83081</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D120" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E120">
         <v>4662</v>
       </c>
       <c r="F120" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G120" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H120">
         <v>83081</v>
@@ -13817,22 +13818,22 @@
         <v>83082</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D121" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E121">
         <v>4664</v>
       </c>
       <c r="F121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G121" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H121">
         <v>83082</v>
@@ -13909,22 +13910,22 @@
         <v>83083</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E122">
         <v>4670</v>
       </c>
       <c r="F122" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G122" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H122">
         <v>83083</v>
@@ -14001,22 +14002,22 @@
         <v>83084</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D123" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E123">
         <v>4710</v>
       </c>
       <c r="F123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G123" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H123">
         <v>83084</v>
@@ -14093,22 +14094,22 @@
         <v>83085</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E124">
         <v>4720</v>
       </c>
       <c r="F124" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G124" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H124">
         <v>83085</v>
@@ -14185,22 +14186,22 @@
         <v>83086</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D125" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E125">
         <v>4730</v>
       </c>
       <c r="F125" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H125">
         <v>83086</v>
@@ -14277,22 +14278,22 @@
         <v>83087</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E126">
         <v>4740</v>
       </c>
       <c r="F126" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G126" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H126">
         <v>83087</v>
@@ -14369,22 +14370,22 @@
         <v>83088</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D127" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E127">
         <v>4742</v>
       </c>
       <c r="F127" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G127" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H127">
         <v>83088</v>
@@ -14461,22 +14462,22 @@
         <v>83089</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D128" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E128">
         <v>4810</v>
       </c>
       <c r="F128" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G128" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H128">
         <v>83089</v>
@@ -14553,22 +14554,22 @@
         <v>83090</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D129" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E129">
         <v>4910</v>
       </c>
       <c r="F129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G129" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H129">
         <v>83090</v>
@@ -14645,22 +14646,22 @@
         <v>83091</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D130" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E130">
         <v>4912</v>
       </c>
       <c r="F130" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G130" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H130">
         <v>83091</v>
@@ -14737,22 +14738,22 @@
         <v>83092</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D131" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E131">
         <v>4916</v>
       </c>
       <c r="F131" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G131" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H131">
         <v>83092</v>
@@ -14829,22 +14830,22 @@
         <v>83093</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D132" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E132">
         <v>4920</v>
       </c>
       <c r="F132" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G132" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H132">
         <v>83093</v>
@@ -14921,22 +14922,22 @@
         <v>83094</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D133" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E133">
         <v>4930</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H133">
         <v>83094</v>
@@ -15013,22 +15014,22 @@
         <v>83095</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D134" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E134">
         <v>4940</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H134">
         <v>83095</v>
@@ -15105,22 +15106,22 @@
         <v>83096</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D135" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E135">
         <v>4950</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H135">
         <v>83096</v>
@@ -15197,22 +15198,22 @@
         <v>83097</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D136" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E136">
         <v>5010</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H136">
         <v>83097</v>
@@ -15289,22 +15290,22 @@
         <v>83098</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D137" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E137">
         <v>5012</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H137">
         <v>83098</v>
@@ -15381,22 +15382,22 @@
         <v>83099</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E138">
         <v>5014</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G138" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H138">
         <v>83099</v>
@@ -15473,22 +15474,22 @@
         <v>83100</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D139" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E139">
         <v>5016</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H139">
         <v>83100</v>
@@ -15565,22 +15566,22 @@
         <v>83101</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D140" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E140">
         <v>5110</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G140" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H140">
         <v>83101</v>
@@ -15657,22 +15658,22 @@
         <v>83102</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D141" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E141">
         <v>5120</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G141" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H141">
         <v>83102</v>
@@ -15749,22 +15750,22 @@
         <v>83103</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D142" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E142">
         <v>5130</v>
       </c>
       <c r="F142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G142" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H142">
         <v>83103</v>
@@ -15841,22 +15842,22 @@
         <v>83104</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E143">
         <v>5131</v>
       </c>
       <c r="F143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G143" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H143">
         <v>83104</v>
@@ -15933,22 +15934,22 @@
         <v>83105</v>
       </c>
       <c r="B144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D144" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E144">
         <v>5200</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G144" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H144">
         <v>83105</v>
@@ -16025,22 +16026,22 @@
         <v>83106</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D145" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E145">
         <v>5210</v>
       </c>
       <c r="F145" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G145" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H145">
         <v>83106</v>
@@ -16117,22 +16118,22 @@
         <v>83107</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E146">
         <v>5211</v>
       </c>
       <c r="F146" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G146" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H146">
         <v>83107</v>
@@ -16209,22 +16210,22 @@
         <v>83108</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D147" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E147">
         <v>5212</v>
       </c>
       <c r="F147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G147" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H147">
         <v>83108</v>
@@ -16301,22 +16302,22 @@
         <v>83109</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E148">
         <v>5213</v>
       </c>
       <c r="F148" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G148" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H148">
         <v>83109</v>
@@ -16393,22 +16394,22 @@
         <v>83110</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D149" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E149">
         <v>5214</v>
       </c>
       <c r="F149" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G149" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H149">
         <v>83110</v>
@@ -16485,22 +16486,22 @@
         <v>83111</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E150">
         <v>5215</v>
       </c>
       <c r="F150" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H150">
         <v>83111</v>
@@ -16577,22 +16578,22 @@
         <v>83112</v>
       </c>
       <c r="B151" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D151" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E151">
         <v>5216</v>
       </c>
       <c r="F151" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G151" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H151">
         <v>83112</v>
@@ -16669,22 +16670,22 @@
         <v>83113</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C152" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D152" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E152">
         <v>5217</v>
       </c>
       <c r="F152" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G152" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H152">
         <v>83113</v>
@@ -16761,22 +16762,22 @@
         <v>83114</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C153" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D153" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E153">
         <v>5218</v>
       </c>
       <c r="F153" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G153" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H153">
         <v>83114</v>
@@ -16853,22 +16854,22 @@
         <v>83115</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D154" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E154">
         <v>5219</v>
       </c>
       <c r="F154" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G154" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H154">
         <v>83115</v>
@@ -16945,22 +16946,22 @@
         <v>83116</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D155" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E155">
         <v>5220</v>
       </c>
       <c r="F155" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G155" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H155">
         <v>83116</v>
@@ -17037,22 +17038,22 @@
         <v>83117</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D156" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E156">
         <v>5221</v>
       </c>
       <c r="F156" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G156" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H156">
         <v>83117</v>
@@ -17129,22 +17130,22 @@
         <v>83118</v>
       </c>
       <c r="B157" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D157" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E157">
         <v>5222</v>
       </c>
       <c r="F157" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G157" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H157">
         <v>83118</v>
@@ -17221,22 +17222,22 @@
         <v>83119</v>
       </c>
       <c r="B158" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D158" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E158">
         <v>5223</v>
       </c>
       <c r="F158" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G158" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H158">
         <v>83119</v>
@@ -17313,22 +17314,22 @@
         <v>83120</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D159" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E159">
         <v>5310</v>
       </c>
       <c r="F159" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G159" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H159">
         <v>83120</v>
@@ -17405,22 +17406,22 @@
         <v>83121</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D160" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E160">
         <v>5320</v>
       </c>
       <c r="F160" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G160" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H160">
         <v>83121</v>
@@ -17497,22 +17498,22 @@
         <v>83122</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E161">
         <v>5322</v>
       </c>
       <c r="F161" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G161" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H161">
         <v>83122</v>
@@ -17589,22 +17590,22 @@
         <v>83123</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D162" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E162">
         <v>5330</v>
       </c>
       <c r="F162" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G162" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H162">
         <v>83123</v>
@@ -17681,22 +17682,22 @@
         <v>83124</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D163" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E163">
         <v>5332</v>
       </c>
       <c r="F163" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G163" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H163">
         <v>83124</v>
@@ -17773,22 +17774,22 @@
         <v>83125</v>
       </c>
       <c r="B164" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D164" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E164">
         <v>5340</v>
       </c>
       <c r="F164" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G164" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H164">
         <v>83125</v>
@@ -17865,22 +17866,22 @@
         <v>93344</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D165" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E165">
         <v>4260</v>
       </c>
       <c r="F165" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G165" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H165">
         <v>93344</v>
@@ -17957,22 +17958,22 @@
         <v>96530</v>
       </c>
       <c r="B166" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D166" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E166">
         <v>4270</v>
       </c>
       <c r="F166" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G166" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H166">
         <v>96530</v>
@@ -18049,22 +18050,22 @@
         <v>99051</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C167" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D167" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E167">
         <v>4062</v>
       </c>
       <c r="F167" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G167" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H167">
         <v>99051</v>
@@ -18141,22 +18142,22 @@
         <v>99052</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D168" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E168">
         <v>4142</v>
       </c>
       <c r="F168" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G168" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H168">
         <v>99052</v>
@@ -18233,22 +18234,22 @@
         <v>101142</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D169" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E169">
         <v>250</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H169">
         <v>101142</v>
@@ -18325,22 +18326,22 @@
         <v>101143</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D170" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E170">
         <v>4722</v>
       </c>
       <c r="F170" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G170" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H170">
         <v>101143</v>
@@ -18417,22 +18418,22 @@
         <v>101144</v>
       </c>
       <c r="B171" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C171" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D171" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E171">
         <v>5020</v>
       </c>
       <c r="F171" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H171">
         <v>101144</v>
@@ -18509,22 +18510,22 @@
         <v>102279</v>
       </c>
       <c r="B172" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D172" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E172">
         <v>4144</v>
       </c>
       <c r="F172" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H172">
         <v>102279</v>
@@ -18601,22 +18602,22 @@
         <v>104488</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D173" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E173">
         <v>270</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H173">
         <v>104488</v>
@@ -18693,22 +18694,22 @@
         <v>114227</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C174" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D174" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E174">
         <v>4320</v>
       </c>
       <c r="F174" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G174" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H174">
         <v>114227</v>
@@ -18785,22 +18786,22 @@
         <v>114228</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C175" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D175" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E175">
         <v>4666</v>
       </c>
       <c r="F175" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G175" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H175">
         <v>114228</v>
@@ -18877,22 +18878,22 @@
         <v>114229</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C176" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D176" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E176">
         <v>5410</v>
       </c>
       <c r="F176" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G176" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H176">
         <v>114229</v>
@@ -18969,22 +18970,22 @@
         <v>117291</v>
       </c>
       <c r="B177" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C177" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D177" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E177">
         <v>3018</v>
       </c>
       <c r="F177" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G177" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H177">
         <v>117291</v>
@@ -19061,22 +19062,22 @@
         <v>117292</v>
       </c>
       <c r="B178" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D178" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E178">
         <v>4622</v>
       </c>
       <c r="F178" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G178" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H178">
         <v>117292</v>
@@ -19153,22 +19154,22 @@
         <v>117293</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D179" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E179">
         <v>5412</v>
       </c>
       <c r="F179" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G179" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H179">
         <v>117293</v>
@@ -19245,22 +19246,22 @@
         <v>119304</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C180" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D180" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E180">
         <v>4914</v>
       </c>
       <c r="F180" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G180" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H180">
         <v>119304</v>
@@ -19337,22 +19338,22 @@
         <v>121494</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D181" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E181">
         <v>5414</v>
       </c>
       <c r="F181" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G181" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H181">
         <v>121494</v>
@@ -19429,22 +19430,22 @@
         <v>122191</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D182" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E182">
         <v>4621</v>
       </c>
       <c r="F182" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G182" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H182">
         <v>122191</v>
@@ -19521,22 +19522,22 @@
         <v>125136</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D183" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E183">
         <v>3040</v>
       </c>
       <c r="F183" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G183" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H183">
         <v>125136</v>
@@ -19613,22 +19614,22 @@
         <v>125137</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D184" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E184">
         <v>4623</v>
       </c>
       <c r="F184" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H184">
         <v>125137</v>
@@ -19705,22 +19706,22 @@
         <v>125138</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D185" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E185">
         <v>5416</v>
       </c>
       <c r="F185" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G185" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H185">
         <v>125138</v>
@@ -19797,22 +19798,22 @@
         <v>126909</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C186" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D186" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E186">
         <v>4114</v>
       </c>
       <c r="F186" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G186" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H186">
         <v>126909</v>
@@ -19889,22 +19890,22 @@
         <v>128760</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C187" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D187" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E187">
         <v>4672</v>
       </c>
       <c r="F187" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G187" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H187">
         <v>128760</v>
@@ -19981,22 +19982,22 @@
         <v>130626</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C188" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D188" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E188">
         <v>4960</v>
       </c>
       <c r="F188" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G188" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H188">
         <v>130626</v>
@@ -20073,22 +20074,22 @@
         <v>131226</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C189" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D189" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E189">
         <v>4146</v>
       </c>
       <c r="F189" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G189" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H189">
         <v>131226</v>
@@ -20165,22 +20166,22 @@
         <v>143700</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C190" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D190" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E190">
         <v>4962</v>
       </c>
       <c r="F190" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G190" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H190">
         <v>143700</v>
@@ -20257,22 +20258,22 @@
         <v>144181</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D191" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E191">
         <v>5140</v>
       </c>
       <c r="F191" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G191" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H191">
         <v>144181</v>
@@ -20349,22 +20350,22 @@
         <v>144182</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D192" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E192">
         <v>4964</v>
       </c>
       <c r="F192" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G192" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H192">
         <v>144182</v>
@@ -20441,22 +20442,22 @@
         <v>147586</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D193" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E193">
         <v>4966</v>
       </c>
       <c r="F193" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G193" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H193">
         <v>147586</v>
@@ -20533,22 +20534,22 @@
         <v>147809</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D194" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E194">
         <v>5142</v>
       </c>
       <c r="F194" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G194" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H194">
         <v>147809</v>
@@ -20625,22 +20626,22 @@
         <v>149806</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D195" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E195">
         <v>4744</v>
       </c>
       <c r="F195" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G195" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H195">
         <v>149806</v>
@@ -20717,22 +20718,22 @@
         <v>149807</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D196" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E196">
         <v>5100</v>
       </c>
       <c r="F196" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G196" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H196">
         <v>149807</v>
@@ -20809,22 +20810,22 @@
         <v>152665</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C197" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D197" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E197">
         <v>5144</v>
       </c>
       <c r="F197" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G197" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H197">
         <v>152665</v>
@@ -20901,22 +20902,22 @@
         <v>153376</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D198" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E198">
         <v>4970</v>
       </c>
       <c r="F198" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G198" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H198">
         <v>153376</v>
@@ -20993,22 +20994,22 @@
         <v>153910</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D199" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E199">
         <v>4145</v>
       </c>
       <c r="F199" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G199" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H199">
         <v>153910</v>
@@ -21085,22 +21086,22 @@
         <v>154409</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D200" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E200">
         <v>4971</v>
       </c>
       <c r="F200" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G200" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H200">
         <v>154409</v>
@@ -21177,22 +21178,22 @@
         <v>167324</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D201" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E201">
         <v>5146</v>
       </c>
       <c r="F201" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G201" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H201">
         <v>167324</v>
@@ -21269,22 +21270,22 @@
         <v>167325</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C202" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D202" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E202">
         <v>4141</v>
       </c>
       <c r="F202" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G202" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H202">
         <v>167325</v>
@@ -21361,22 +21362,22 @@
         <v>169306</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C203" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D203" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E203">
         <v>4972</v>
       </c>
       <c r="F203" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G203" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H203">
         <v>169306</v>
@@ -21453,22 +21454,22 @@
         <v>169642</v>
       </c>
       <c r="B204" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D204" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E204">
         <v>5145</v>
       </c>
       <c r="F204" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G204" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H204">
         <v>169642</v>
@@ -21545,22 +21546,22 @@
         <v>170720</v>
       </c>
       <c r="B205" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C205" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D205" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E205">
         <v>4973</v>
       </c>
       <c r="F205" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G205" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H205">
         <v>170720</v>
@@ -21637,22 +21638,22 @@
         <v>172846</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D206" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E206">
         <v>5150</v>
       </c>
       <c r="F206" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G206" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H206">
         <v>172846</v>
@@ -21729,22 +21730,22 @@
         <v>172847</v>
       </c>
       <c r="B207" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C207" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D207" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E207">
         <v>4974</v>
       </c>
       <c r="F207" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G207" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H207">
         <v>172847</v>
@@ -21821,22 +21822,22 @@
         <v>173973</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D208" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E208">
         <v>5160</v>
       </c>
       <c r="F208" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G208" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H208">
         <v>173973</v>
@@ -21913,22 +21914,22 @@
         <v>177876</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D209" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E209">
         <v>3013</v>
       </c>
       <c r="F209" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G209" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H209">
         <v>177876</v>
@@ -22005,22 +22006,22 @@
         <v>193146</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D210" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E210">
         <v>4976</v>
       </c>
       <c r="F210" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G210" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H210">
         <v>193146</v>
@@ -22097,22 +22098,22 @@
         <v>193147</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C211" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D211" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E211">
         <v>4380</v>
       </c>
       <c r="F211" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G211" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H211">
         <v>193147</v>
@@ -22189,22 +22190,22 @@
         <v>193328</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C212" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D212" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E212">
         <v>3015</v>
       </c>
       <c r="F212" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G212" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H212">
         <v>193328</v>
@@ -22281,22 +22282,22 @@
         <v>194384</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C213" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D213" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E213">
         <v>5143</v>
       </c>
       <c r="F213" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G213" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H213">
         <v>194384</v>
@@ -22373,22 +22374,22 @@
         <v>194385</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C214" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D214" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E214">
         <v>4975</v>
       </c>
       <c r="F214" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G214" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H214">
         <v>194385</v>
@@ -22465,22 +22466,22 @@
         <v>199378</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C215" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D215" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E215">
         <v>3008</v>
       </c>
       <c r="F215" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G215" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H215">
         <v>199378</v>
@@ -22557,22 +22558,22 @@
         <v>199556</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C216" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D216" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E216">
         <v>4977</v>
       </c>
       <c r="F216" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G216" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H216">
         <v>199556</v>
@@ -22649,22 +22650,22 @@
         <v>200309</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D217" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E217">
         <v>5323</v>
       </c>
       <c r="F217" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G217" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H217">
         <v>200309</v>
@@ -22741,22 +22742,22 @@
         <v>212237</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C218" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D218" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E218">
         <v>4978</v>
       </c>
       <c r="F218" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G218" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H218">
         <v>212237</v>
@@ -22833,22 +22834,22 @@
         <v>213306</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C219" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D219" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E219">
         <v>5162</v>
       </c>
       <c r="F219" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G219" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H219">
         <v>213306</v>
@@ -22925,22 +22926,22 @@
         <v>213307</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C220" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D220" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E220">
         <v>4961</v>
       </c>
       <c r="F220" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G220" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H220">
         <v>213307</v>
@@ -23017,22 +23018,22 @@
         <v>213780</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C221" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D221" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E221">
         <v>5152</v>
       </c>
       <c r="F221" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G221" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H221">
         <v>213780</v>
@@ -23109,22 +23110,22 @@
         <v>213818</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C222" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D222" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E222">
         <v>4724</v>
       </c>
       <c r="F222" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G222" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H222">
         <v>213818</v>
@@ -23201,22 +23202,22 @@
         <v>217173</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C223" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D223" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E223">
         <v>5164</v>
       </c>
       <c r="F223" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G223" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H223">
         <v>217173</v>
@@ -23293,22 +23294,22 @@
         <v>217716</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C224" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D224" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E224">
         <v>4725</v>
       </c>
       <c r="F224" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G224" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H224">
         <v>217716</v>
@@ -23385,22 +23386,22 @@
         <v>218111</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C225" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D225" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E225">
         <v>5133</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G225" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H225">
         <v>218111</v>
@@ -23477,22 +23478,22 @@
         <v>373900</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C226" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D226" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E226">
         <v>4721</v>
       </c>
       <c r="F226" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G226" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H226">
         <v>373900</v>
@@ -23569,22 +23570,22 @@
         <v>373901</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C227" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D227" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E227">
         <v>5166</v>
       </c>
       <c r="F227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G227" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H227">
         <v>373901</v>
@@ -23661,22 +23662,22 @@
         <v>375172</v>
       </c>
       <c r="B228" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C228" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D228" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E228">
         <v>5132</v>
       </c>
       <c r="F228" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G228" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H228">
         <v>375172</v>
@@ -23753,22 +23754,22 @@
         <v>377262</v>
       </c>
       <c r="B229" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C229" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D229" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E229">
         <v>3460</v>
       </c>
       <c r="F229" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G229" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H229">
         <v>377262</v>
@@ -23845,22 +23846,22 @@
         <v>377263</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C230" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D230" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E230">
         <v>4727</v>
       </c>
       <c r="F230" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G230" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H230">
         <v>377263</v>
@@ -23937,22 +23938,22 @@
         <v>377873</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C231" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D231" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E231">
         <v>5168</v>
       </c>
       <c r="F231" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G231" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H231">
         <v>377873</v>
@@ -24029,22 +24030,22 @@
         <v>413340</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C232" t="s">
+        <v>534</v>
+      </c>
+      <c r="D232" t="s">
+        <v>535</v>
+      </c>
+      <c r="E232" t="s">
         <v>536</v>
       </c>
-      <c r="D232" t="s">
+      <c r="F232" t="s">
+        <v>31</v>
+      </c>
+      <c r="G232" t="s">
         <v>537</v>
-      </c>
-      <c r="E232" t="s">
-        <v>538</v>
-      </c>
-      <c r="F232" t="s">
-        <v>33</v>
-      </c>
-      <c r="G232" t="s">
-        <v>539</v>
       </c>
       <c r="H232">
         <v>413340</v>
@@ -24121,22 +24122,22 @@
         <v>413341</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C233" t="s">
+        <v>538</v>
+      </c>
+      <c r="D233" t="s">
+        <v>539</v>
+      </c>
+      <c r="E233" t="s">
         <v>540</v>
       </c>
-      <c r="D233" t="s">
-        <v>541</v>
-      </c>
-      <c r="E233" t="s">
-        <v>542</v>
-      </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G233" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H233">
         <v>413341</v>
@@ -24213,22 +24214,22 @@
         <v>413342</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C234" t="s">
+        <v>541</v>
+      </c>
+      <c r="D234" t="s">
+        <v>542</v>
+      </c>
+      <c r="E234" t="s">
         <v>543</v>
       </c>
-      <c r="D234" t="s">
-        <v>544</v>
-      </c>
-      <c r="E234" t="s">
-        <v>545</v>
-      </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H234">
         <v>413342</v>
@@ -24305,22 +24306,22 @@
         <v>413343</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C235" t="s">
+        <v>544</v>
+      </c>
+      <c r="D235" t="s">
+        <v>545</v>
+      </c>
+      <c r="E235" t="s">
         <v>546</v>
       </c>
-      <c r="D235" t="s">
-        <v>547</v>
-      </c>
-      <c r="E235" t="s">
-        <v>548</v>
-      </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H235">
         <v>413343</v>
@@ -24397,22 +24398,22 @@
         <v>413348</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C236" t="s">
+        <v>547</v>
+      </c>
+      <c r="D236" t="s">
+        <v>548</v>
+      </c>
+      <c r="E236" t="s">
         <v>549</v>
       </c>
-      <c r="D236" t="s">
-        <v>550</v>
-      </c>
-      <c r="E236" t="s">
-        <v>551</v>
-      </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H236">
         <v>413348</v>
@@ -24489,22 +24490,22 @@
         <v>413352</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C237" t="s">
+        <v>550</v>
+      </c>
+      <c r="D237" t="s">
+        <v>551</v>
+      </c>
+      <c r="E237" t="s">
         <v>552</v>
       </c>
-      <c r="D237" t="s">
-        <v>553</v>
-      </c>
-      <c r="E237" t="s">
-        <v>554</v>
-      </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H237">
         <v>413352</v>
@@ -24581,22 +24582,22 @@
         <v>413353</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C238" t="s">
+        <v>553</v>
+      </c>
+      <c r="D238" t="s">
+        <v>554</v>
+      </c>
+      <c r="E238" t="s">
         <v>555</v>
       </c>
-      <c r="D238" t="s">
-        <v>556</v>
-      </c>
-      <c r="E238" t="s">
-        <v>557</v>
-      </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H238">
         <v>413353</v>
@@ -24673,22 +24674,22 @@
         <v>413354</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C239" t="s">
+        <v>556</v>
+      </c>
+      <c r="D239" t="s">
+        <v>557</v>
+      </c>
+      <c r="E239" t="s">
         <v>558</v>
       </c>
-      <c r="D239" t="s">
-        <v>559</v>
-      </c>
-      <c r="E239" t="s">
-        <v>560</v>
-      </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H239">
         <v>413354</v>
@@ -24765,22 +24766,22 @@
         <v>413356</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C240" t="s">
+        <v>559</v>
+      </c>
+      <c r="D240" t="s">
+        <v>560</v>
+      </c>
+      <c r="E240" t="s">
         <v>561</v>
       </c>
-      <c r="D240" t="s">
-        <v>562</v>
-      </c>
-      <c r="E240" t="s">
-        <v>563</v>
-      </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H240">
         <v>413356</v>
@@ -24857,22 +24858,22 @@
         <v>413360</v>
       </c>
       <c r="B241" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C241" t="s">
+        <v>562</v>
+      </c>
+      <c r="D241" t="s">
+        <v>563</v>
+      </c>
+      <c r="E241" t="s">
         <v>564</v>
       </c>
-      <c r="D241" t="s">
-        <v>565</v>
-      </c>
-      <c r="E241" t="s">
-        <v>566</v>
-      </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H241">
         <v>413360</v>
@@ -24949,22 +24950,22 @@
         <v>413361</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C242" t="s">
+        <v>565</v>
+      </c>
+      <c r="D242" t="s">
+        <v>566</v>
+      </c>
+      <c r="E242" t="s">
         <v>567</v>
       </c>
-      <c r="D242" t="s">
-        <v>568</v>
-      </c>
-      <c r="E242" t="s">
-        <v>569</v>
-      </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H242">
         <v>413361</v>
@@ -25041,22 +25042,22 @@
         <v>413362</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C243" t="s">
+        <v>568</v>
+      </c>
+      <c r="D243" t="s">
+        <v>569</v>
+      </c>
+      <c r="E243" t="s">
         <v>570</v>
       </c>
-      <c r="D243" t="s">
-        <v>571</v>
-      </c>
-      <c r="E243" t="s">
-        <v>572</v>
-      </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H243">
         <v>413362</v>
@@ -25133,22 +25134,22 @@
         <v>413365</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C244" t="s">
+        <v>571</v>
+      </c>
+      <c r="D244" t="s">
+        <v>572</v>
+      </c>
+      <c r="E244" t="s">
         <v>573</v>
       </c>
-      <c r="D244" t="s">
-        <v>574</v>
-      </c>
-      <c r="E244" t="s">
-        <v>575</v>
-      </c>
       <c r="F244" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H244">
         <v>413365</v>
@@ -25225,22 +25226,22 @@
         <v>413381</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C245" t="s">
+        <v>574</v>
+      </c>
+      <c r="D245" t="s">
+        <v>575</v>
+      </c>
+      <c r="E245" t="s">
         <v>576</v>
       </c>
-      <c r="D245" t="s">
-        <v>577</v>
-      </c>
-      <c r="E245" t="s">
-        <v>578</v>
-      </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H245">
         <v>413381</v>
@@ -25317,22 +25318,22 @@
         <v>413384</v>
       </c>
       <c r="B246" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C246" t="s">
+        <v>577</v>
+      </c>
+      <c r="D246" t="s">
+        <v>578</v>
+      </c>
+      <c r="E246" t="s">
         <v>579</v>
       </c>
-      <c r="D246" t="s">
-        <v>580</v>
-      </c>
-      <c r="E246" t="s">
-        <v>581</v>
-      </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G246" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H246">
         <v>413384</v>
@@ -25409,22 +25410,22 @@
         <v>413387</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C247" t="s">
+        <v>580</v>
+      </c>
+      <c r="D247" t="s">
+        <v>581</v>
+      </c>
+      <c r="E247" t="s">
         <v>582</v>
       </c>
-      <c r="D247" t="s">
-        <v>583</v>
-      </c>
-      <c r="E247" t="s">
-        <v>584</v>
-      </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H247">
         <v>413387</v>
@@ -25501,22 +25502,22 @@
         <v>413388</v>
       </c>
       <c r="B248" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C248" t="s">
+        <v>583</v>
+      </c>
+      <c r="D248" t="s">
+        <v>584</v>
+      </c>
+      <c r="E248" t="s">
         <v>585</v>
       </c>
-      <c r="D248" t="s">
-        <v>586</v>
-      </c>
-      <c r="E248" t="s">
-        <v>587</v>
-      </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G248" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H248">
         <v>413388</v>
@@ -25593,22 +25594,22 @@
         <v>413390</v>
       </c>
       <c r="B249" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C249" t="s">
+        <v>586</v>
+      </c>
+      <c r="D249" t="s">
+        <v>587</v>
+      </c>
+      <c r="E249" t="s">
         <v>588</v>
       </c>
-      <c r="D249" t="s">
-        <v>589</v>
-      </c>
-      <c r="E249" t="s">
-        <v>590</v>
-      </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H249">
         <v>413390</v>
@@ -25685,22 +25686,22 @@
         <v>413400</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C250" t="s">
+        <v>589</v>
+      </c>
+      <c r="D250" t="s">
+        <v>590</v>
+      </c>
+      <c r="E250" t="s">
         <v>591</v>
       </c>
-      <c r="D250" t="s">
-        <v>592</v>
-      </c>
-      <c r="E250" t="s">
-        <v>593</v>
-      </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H250">
         <v>413400</v>
@@ -25777,22 +25778,22 @@
         <v>413432</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C251" t="s">
+        <v>592</v>
+      </c>
+      <c r="D251" t="s">
+        <v>593</v>
+      </c>
+      <c r="E251" t="s">
         <v>594</v>
       </c>
-      <c r="D251" t="s">
-        <v>595</v>
-      </c>
-      <c r="E251" t="s">
-        <v>596</v>
-      </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H251">
         <v>413432</v>
@@ -25869,22 +25870,22 @@
         <v>413446</v>
       </c>
       <c r="B252" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C252" t="s">
+        <v>595</v>
+      </c>
+      <c r="D252" t="s">
+        <v>596</v>
+      </c>
+      <c r="E252" t="s">
         <v>597</v>
       </c>
-      <c r="D252" t="s">
-        <v>598</v>
-      </c>
-      <c r="E252" t="s">
-        <v>599</v>
-      </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G252" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H252">
         <v>413446</v>
@@ -25961,22 +25962,22 @@
         <v>413482</v>
       </c>
       <c r="B253" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C253" t="s">
+        <v>598</v>
+      </c>
+      <c r="D253" t="s">
+        <v>599</v>
+      </c>
+      <c r="E253" t="s">
         <v>600</v>
       </c>
-      <c r="D253" t="s">
-        <v>601</v>
-      </c>
-      <c r="E253" t="s">
-        <v>602</v>
-      </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G253" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H253">
         <v>413482</v>
@@ -26053,22 +26054,22 @@
         <v>469199</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C254" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D254" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E254">
         <v>4728</v>
       </c>
       <c r="F254" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G254" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H254">
         <v>469199</v>
@@ -26145,22 +26146,22 @@
         <v>469200</v>
       </c>
       <c r="B255" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D255" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E255">
         <v>5134</v>
       </c>
       <c r="F255" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G255" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H255">
         <v>469200</v>
@@ -26237,22 +26238,22 @@
         <v>523016</v>
       </c>
       <c r="B256" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C256" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D256" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E256">
         <v>5202</v>
       </c>
       <c r="F256" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G256" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H256">
         <v>523016</v>
@@ -26329,22 +26330,22 @@
         <v>524496</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s">
+        <v>607</v>
+      </c>
+      <c r="D257" t="s">
+        <v>608</v>
+      </c>
+      <c r="E257" t="s">
         <v>609</v>
       </c>
-      <c r="D257" t="s">
-        <v>610</v>
-      </c>
-      <c r="E257" t="s">
-        <v>611</v>
-      </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G257" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H257">
         <v>524496</v>
@@ -26421,22 +26422,22 @@
         <v>524497</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
+        <v>610</v>
+      </c>
+      <c r="D258" t="s">
+        <v>611</v>
+      </c>
+      <c r="E258" t="s">
         <v>612</v>
       </c>
-      <c r="D258" t="s">
-        <v>613</v>
-      </c>
-      <c r="E258" t="s">
-        <v>614</v>
-      </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H258">
         <v>524497</v>
@@ -26513,22 +26514,22 @@
         <v>525336</v>
       </c>
       <c r="B259" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C259" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D259" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E259">
         <v>4726</v>
       </c>
       <c r="F259" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G259" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H259">
         <v>525336</v>
@@ -26605,22 +26606,22 @@
         <v>537443</v>
       </c>
       <c r="B260" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C260" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D260" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E260">
         <v>4723</v>
       </c>
       <c r="F260" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G260" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H260">
         <v>537443</v>
@@ -26697,22 +26698,22 @@
         <v>546258</v>
       </c>
       <c r="B261" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C261" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D261" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E261">
         <v>5030</v>
       </c>
       <c r="F261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G261" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H261">
         <v>546258</v>
@@ -26789,22 +26790,22 @@
         <v>547607</v>
       </c>
       <c r="B262" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C262" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D262" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E262">
         <v>5031</v>
       </c>
       <c r="F262" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G262" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H262">
         <v>547607</v>
@@ -26881,22 +26882,22 @@
         <v>552665</v>
       </c>
       <c r="B263" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C263" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D263" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E263">
         <v>5032</v>
       </c>
       <c r="F263" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G263" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H263">
         <v>552665</v>
@@ -26973,22 +26974,22 @@
         <v>583255</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C264" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D264" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E264">
         <v>5033</v>
       </c>
       <c r="F264" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G264" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H264">
         <v>583255</v>
@@ -27065,22 +27066,22 @@
         <v>585562</v>
       </c>
       <c r="B265" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C265" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D265" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E265">
         <v>5169</v>
       </c>
       <c r="F265" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G265" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H265">
         <v>585562</v>
@@ -27157,22 +27158,22 @@
         <v>585563</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C266" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D266" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E266">
         <v>5034</v>
       </c>
       <c r="F266" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G266" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H266">
         <v>585563</v>
@@ -27249,22 +27250,22 @@
         <v>618580</v>
       </c>
       <c r="B267" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C267" t="s">
+        <v>630</v>
+      </c>
+      <c r="D267" t="s">
+        <v>631</v>
+      </c>
+      <c r="E267" t="s">
         <v>632</v>
       </c>
-      <c r="D267" t="s">
-        <v>633</v>
-      </c>
-      <c r="E267" t="s">
-        <v>634</v>
-      </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H267">
         <v>618580</v>
@@ -27341,22 +27342,22 @@
         <v>618581</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C268" t="s">
+        <v>633</v>
+      </c>
+      <c r="D268" t="s">
+        <v>634</v>
+      </c>
+      <c r="E268" t="s">
         <v>635</v>
       </c>
-      <c r="D268" t="s">
-        <v>636</v>
-      </c>
-      <c r="E268" t="s">
-        <v>637</v>
-      </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G268" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H268">
         <v>618581</v>
@@ -27433,22 +27434,22 @@
         <v>634527</v>
       </c>
       <c r="B269" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C269" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D269" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E269">
         <v>4064</v>
       </c>
       <c r="F269" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G269" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H269">
         <v>634527</v>
@@ -27525,22 +27526,22 @@
         <v>658418</v>
       </c>
       <c r="B270" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C270" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D270" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E270">
         <v>5203</v>
       </c>
       <c r="F270" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G270" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H270">
         <v>658418</v>
@@ -27617,22 +27618,22 @@
         <v>673221</v>
       </c>
       <c r="B271" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C271" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D271" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E271">
         <v>5204</v>
       </c>
       <c r="F271" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G271" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H271">
         <v>673221</v>
@@ -27709,22 +27710,22 @@
         <v>692234</v>
       </c>
       <c r="B272" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C272" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D272" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E272">
         <v>4151</v>
       </c>
       <c r="F272" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G272" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H272">
         <v>692234</v>
@@ -27801,22 +27802,22 @@
         <v>694606</v>
       </c>
       <c r="B273" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C273" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D273" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E273">
         <v>5161</v>
       </c>
       <c r="F273" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G273" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H273">
         <v>694606</v>
@@ -27893,22 +27894,22 @@
         <v>695200</v>
       </c>
       <c r="B274" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C274" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D274" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E274">
         <v>4066</v>
       </c>
       <c r="F274" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G274" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H274">
         <v>695200</v>
@@ -27985,22 +27986,22 @@
         <v>698773</v>
       </c>
       <c r="B275" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C275" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D275" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E275">
         <v>4713</v>
       </c>
       <c r="F275" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G275" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H275">
         <v>698773</v>
@@ -28077,22 +28078,22 @@
         <v>714485</v>
       </c>
       <c r="B276" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C276" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D276" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E276">
         <v>1210</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G276" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H276">
         <v>714485</v>
@@ -28169,22 +28170,22 @@
         <v>749777</v>
       </c>
       <c r="B277" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C277" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D277" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E277">
         <v>4390</v>
       </c>
       <c r="F277" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G277" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H277">
         <v>749777</v>
@@ -28261,22 +28262,22 @@
         <v>777534</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C278" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D278" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E278">
         <v>4911</v>
       </c>
       <c r="F278" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H278">
         <v>777534</v>
@@ -28353,22 +28354,22 @@
         <v>782000</v>
       </c>
       <c r="B279" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C279" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D279" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E279">
         <v>5205</v>
       </c>
       <c r="F279" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G279" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H279">
         <v>782000</v>
@@ -28445,22 +28446,22 @@
         <v>790011</v>
       </c>
       <c r="B280" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C280" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D280" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E280">
         <v>4913</v>
       </c>
       <c r="F280" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G280" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H280">
         <v>790011</v>
@@ -28537,22 +28538,22 @@
         <v>790012</v>
       </c>
       <c r="B281" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C281" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D281" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E281">
         <v>1230</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G281" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H281">
         <v>790012</v>
@@ -28629,22 +28630,22 @@
         <v>799177</v>
       </c>
       <c r="B282" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C282" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D282" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E282">
         <v>4915</v>
       </c>
       <c r="F282" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G282" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H282">
         <v>799177</v>
@@ -28721,22 +28722,22 @@
         <v>812256</v>
       </c>
       <c r="B283" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C283" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D283" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E283">
         <v>4668</v>
       </c>
       <c r="F283" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G283" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H283">
         <v>812256</v>
@@ -28813,22 +28814,22 @@
         <v>814182</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D284" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E284">
         <v>4917</v>
       </c>
       <c r="F284" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G284" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H284">
         <v>814182</v>
@@ -28905,22 +28906,22 @@
         <v>814926</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D285" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E285">
         <v>1200</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G285" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H285">
         <v>814926</v>
@@ -28997,22 +28998,22 @@
         <v>835410</v>
       </c>
       <c r="B286" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C286" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D286" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E286">
         <v>4918</v>
       </c>
       <c r="F286" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G286" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H286">
         <v>835410</v>
@@ -29089,22 +29090,22 @@
         <v>842771</v>
       </c>
       <c r="B287" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C287" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D287" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E287">
         <v>5321</v>
       </c>
       <c r="F287" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G287" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H287">
         <v>842771</v>
@@ -29181,22 +29182,22 @@
         <v>852705</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C288" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D288" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E288">
         <v>5206</v>
       </c>
       <c r="F288" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G288" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H288">
         <v>852705</v>
@@ -29273,22 +29274,22 @@
         <v>855811</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C289" t="s">
+        <v>677</v>
+      </c>
+      <c r="D289" t="s">
+        <v>678</v>
+      </c>
+      <c r="E289" t="s">
         <v>679</v>
       </c>
-      <c r="D289" t="s">
-        <v>680</v>
-      </c>
-      <c r="E289" t="s">
-        <v>681</v>
-      </c>
       <c r="F289" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G289" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H289">
         <v>855811</v>
@@ -29365,22 +29366,22 @@
         <v>862188</v>
       </c>
       <c r="B290" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C290" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D290" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E290">
         <v>4932</v>
       </c>
       <c r="F290" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G290" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H290">
         <v>862188</v>
@@ -29457,22 +29458,22 @@
         <v>868084</v>
       </c>
       <c r="B291" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C291" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D291" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E291">
         <v>1212</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G291" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H291">
         <v>868084</v>
@@ -29549,22 +29550,22 @@
         <v>868085</v>
       </c>
       <c r="B292" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C292" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D292" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E292">
         <v>4014</v>
       </c>
       <c r="F292" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G292" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H292">
         <v>868085</v>
@@ -29641,22 +29642,22 @@
         <v>868086</v>
       </c>
       <c r="B293" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C293" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D293" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E293">
         <v>4015</v>
       </c>
       <c r="F293" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G293" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H293">
         <v>868086</v>
@@ -29733,22 +29734,22 @@
         <v>908257</v>
       </c>
       <c r="B294" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C294" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D294" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E294">
         <v>4261</v>
       </c>
       <c r="F294" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G294" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H294">
         <v>908257</v>
@@ -29825,22 +29826,22 @@
         <v>921162</v>
       </c>
       <c r="B295" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C295" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D295" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E295">
         <v>4068</v>
       </c>
       <c r="F295" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G295" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H295">
         <v>921162</v>
@@ -29917,22 +29918,22 @@
         <v>946598</v>
       </c>
       <c r="B296" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C296" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D296" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E296">
         <v>4919</v>
       </c>
       <c r="F296" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G296" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H296">
         <v>946598</v>
@@ -30009,22 +30010,22 @@
         <v>948277</v>
       </c>
       <c r="B297" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C297" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D297" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E297">
         <v>4750</v>
       </c>
       <c r="F297" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G297" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H297">
         <v>948277</v>
@@ -30101,22 +30102,22 @@
         <v>952858</v>
       </c>
       <c r="B298" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C298" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D298" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E298">
         <v>4611</v>
       </c>
       <c r="F298" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G298" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H298">
         <v>952858</v>
@@ -30193,22 +30194,22 @@
         <v>952859</v>
       </c>
       <c r="B299" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C299" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D299" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E299">
         <v>4921</v>
       </c>
       <c r="F299" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G299" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H299">
         <v>952859</v>
@@ -30285,22 +30286,22 @@
         <v>983748</v>
       </c>
       <c r="B300" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C300" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D300" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E300">
         <v>4022</v>
       </c>
       <c r="F300" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G300" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H300">
         <v>983748</v>
@@ -30377,22 +30378,22 @@
         <v>989139</v>
       </c>
       <c r="B301" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C301" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D301" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E301">
         <v>4152</v>
       </c>
       <c r="F301" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G301" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H301">
         <v>989139</v>
@@ -30469,22 +30470,22 @@
         <v>997799</v>
       </c>
       <c r="B302" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C302" t="s">
+        <v>704</v>
+      </c>
+      <c r="D302" t="s">
+        <v>705</v>
+      </c>
+      <c r="E302" t="s">
         <v>706</v>
       </c>
-      <c r="D302" t="s">
-        <v>707</v>
-      </c>
-      <c r="E302" t="s">
-        <v>708</v>
-      </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G302" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H302">
         <v>997799</v>
@@ -30561,22 +30562,22 @@
         <v>1017634</v>
       </c>
       <c r="B303" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C303" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D303" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E303">
         <v>4024</v>
       </c>
       <c r="F303" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G303" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H303">
         <v>1017634</v>
@@ -30653,22 +30654,22 @@
         <v>1026136</v>
       </c>
       <c r="B304" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C304" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D304" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E304">
         <v>4550</v>
       </c>
       <c r="F304" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G304" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H304">
         <v>1026136</v>
@@ -30745,22 +30746,22 @@
         <v>1059538</v>
       </c>
       <c r="B305" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C305" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D305" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E305">
         <v>5230</v>
       </c>
       <c r="F305" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G305" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H305">
         <v>1059538</v>
@@ -30837,22 +30838,22 @@
         <v>1059539</v>
       </c>
       <c r="B306" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C306" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D306" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E306">
         <v>5231</v>
       </c>
       <c r="F306" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G306" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H306">
         <v>1059539</v>
@@ -30929,22 +30930,22 @@
         <v>1144995</v>
       </c>
       <c r="B307" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C307" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D307" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E307">
         <v>4071</v>
       </c>
       <c r="F307" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G307" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H307">
         <v>1144995</v>
@@ -31021,22 +31022,22 @@
         <v>1144996</v>
       </c>
       <c r="B308" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C308" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D308" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E308">
         <v>4922</v>
       </c>
       <c r="F308" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G308" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H308">
         <v>1144996</v>
@@ -31113,22 +31114,22 @@
         <v>1222950</v>
       </c>
       <c r="B309" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D309" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E309">
         <v>4923</v>
       </c>
       <c r="F309" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H309">
         <v>1222950</v>
@@ -31205,22 +31206,22 @@
         <v>1222951</v>
       </c>
       <c r="B310" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C310" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D310" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E310">
         <v>4924</v>
       </c>
       <c r="F310" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G310" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H310">
         <v>1222951</v>
@@ -31297,22 +31298,22 @@
         <v>1272485</v>
       </c>
       <c r="B311" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C311" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D311" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E311">
         <v>4925</v>
       </c>
       <c r="F311" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G311" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H311">
         <v>1272485</v>
@@ -31389,22 +31390,22 @@
         <v>1272486</v>
       </c>
       <c r="B312" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C312" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D312" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E312">
         <v>4931</v>
       </c>
       <c r="F312" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G312" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H312">
         <v>1272486</v>
@@ -31481,22 +31482,22 @@
         <v>1311074</v>
       </c>
       <c r="B313" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C313" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D313" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E313">
         <v>4072</v>
       </c>
       <c r="F313" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G313" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H313">
         <v>1311074</v>
@@ -31573,22 +31574,22 @@
         <v>1319988</v>
       </c>
       <c r="B314" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C314" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D314" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E314">
         <v>4933</v>
       </c>
       <c r="F314" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G314" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H314">
         <v>1319988</v>
@@ -31665,22 +31666,22 @@
         <v>1319989</v>
       </c>
       <c r="B315" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C315" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D315" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E315">
         <v>4211</v>
       </c>
       <c r="F315" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G315" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H315">
         <v>1319989</v>
@@ -31757,22 +31758,22 @@
         <v>1340713</v>
       </c>
       <c r="B316" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C316" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D316" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E316">
         <v>4213</v>
       </c>
       <c r="F316" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G316" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H316">
         <v>1340713</v>
@@ -31849,22 +31850,22 @@
         <v>1384747</v>
       </c>
       <c r="B317" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C317" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D317" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E317">
         <v>4215</v>
       </c>
       <c r="F317" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G317" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H317">
         <v>1384747</v>
@@ -31941,22 +31942,22 @@
         <v>1393107</v>
       </c>
       <c r="B318" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C318" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D318" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E318">
         <v>4392</v>
       </c>
       <c r="F318" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G318" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H318">
         <v>1393107</v>
@@ -32033,22 +32034,22 @@
         <v>1404797</v>
       </c>
       <c r="B319" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C319" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D319" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E319">
         <v>1524</v>
       </c>
       <c r="F319" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G319" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H319">
         <v>1404797</v>
@@ -32125,22 +32126,22 @@
         <v>1404798</v>
       </c>
       <c r="B320" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C320" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D320" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E320">
         <v>1521</v>
       </c>
       <c r="F320" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G320" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H320">
         <v>1404798</v>
@@ -32217,22 +32218,22 @@
         <v>1404799</v>
       </c>
       <c r="B321" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C321" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D321" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E321">
         <v>1522</v>
       </c>
       <c r="F321" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G321" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H321">
         <v>1404799</v>
@@ -32309,22 +32310,22 @@
         <v>1435207</v>
       </c>
       <c r="B322" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C322" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D322" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E322">
         <v>5224</v>
       </c>
       <c r="F322" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G322" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H322">
         <v>1435207</v>
@@ -32401,22 +32402,22 @@
         <v>1440526</v>
       </c>
       <c r="B323" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C323" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D323" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E323">
         <v>1523</v>
       </c>
       <c r="F323" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G323" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H323">
         <v>1440526</v>
@@ -32493,22 +32494,22 @@
         <v>1458885</v>
       </c>
       <c r="B324" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C324" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D324" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E324">
         <v>4658</v>
       </c>
       <c r="F324" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G324" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H324">
         <v>1458885</v>
@@ -32585,22 +32586,22 @@
         <v>1469011</v>
       </c>
       <c r="B325" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C325" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D325" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E325">
         <v>515</v>
       </c>
       <c r="F325" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G325" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H325">
         <v>1469011</v>
@@ -32677,22 +32678,22 @@
         <v>1469482</v>
       </c>
       <c r="B326" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C326" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D326" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E326">
         <v>4659</v>
       </c>
       <c r="F326" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G326" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H326">
         <v>1469482</v>
@@ -32769,22 +32770,22 @@
         <v>1474301</v>
       </c>
       <c r="B327" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C327" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D327" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E327">
         <v>4657</v>
       </c>
       <c r="F327" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G327" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H327">
         <v>1474301</v>
@@ -32861,22 +32862,22 @@
         <v>1474302</v>
       </c>
       <c r="B328" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C328" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D328" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E328">
         <v>5418</v>
       </c>
       <c r="F328" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G328" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H328">
         <v>1474302</v>
@@ -32953,22 +32954,22 @@
         <v>1492886</v>
       </c>
       <c r="B329" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C329" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D329" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E329">
         <v>4371</v>
       </c>
       <c r="F329" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G329" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H329">
         <v>1492886</v>
@@ -33045,22 +33046,22 @@
         <v>1496831</v>
       </c>
       <c r="B330" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C330" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D330" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E330">
         <v>4137</v>
       </c>
       <c r="F330" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G330" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H330">
         <v>1496831</v>
@@ -33137,22 +33138,22 @@
         <v>1510434</v>
       </c>
       <c r="B331" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C331" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D331" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E331">
         <v>4136</v>
       </c>
       <c r="F331" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G331" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H331">
         <v>1510434</v>
@@ -33229,22 +33230,22 @@
         <v>1510435</v>
       </c>
       <c r="B332" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C332" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D332" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E332">
         <v>4216</v>
       </c>
       <c r="F332" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G332" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H332">
         <v>1510435</v>
